--- a/作业打分.xlsx
+++ b/作业打分.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ganler-mac/Desktop/Dropbox/Ganler_Dropbox/COMPETITION/RM2020/招人和培训/SPTraining-VisionGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FF603C-3049-7946-A987-0F3E833FA14C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7BD937-BDE6-FF48-B701-89C7B66EA660}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{76E2E8F9-87E2-9C4F-9C6E-F35B2F867F25}"/>
   </bookViews>
@@ -124,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +134,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,6 +252,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,7 +573,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -720,7 +729,7 @@
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="7">
         <v>9</v>
       </c>
       <c r="C10" s="1"/>
@@ -754,7 +763,7 @@
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="7">
         <v>8</v>
       </c>
       <c r="C12" s="1"/>
@@ -788,7 +797,9 @@
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="7">
+        <v>9</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -852,7 +863,7 @@
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="7">
         <v>7.5</v>
       </c>
       <c r="C18" s="1"/>

--- a/作业打分.xlsx
+++ b/作业打分.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ganler-mac/Desktop/Dropbox/Ganler_Dropbox/COMPETITION/RM2020/招人和培训/SPTraining-VisionGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7BD937-BDE6-FF48-B701-89C7B66EA660}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE23C2B-AC88-C744-AA85-6E8FC3BB0D31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{76E2E8F9-87E2-9C4F-9C6E-F35B2F867F25}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,8 +123,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,7 +147,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,12 +245,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,15 +272,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -573,7 +602,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -601,7 +630,9 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="6">
+        <v>8</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -617,7 +648,7 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -649,7 +680,9 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="7">
+        <v>8</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -729,7 +762,7 @@
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>9</v>
       </c>
       <c r="C10" s="1"/>
@@ -763,7 +796,7 @@
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>8</v>
       </c>
       <c r="C12" s="1"/>
@@ -797,7 +830,7 @@
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>9</v>
       </c>
       <c r="C14" s="1"/>
@@ -815,7 +848,9 @@
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="6">
+        <v>7.5</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -847,7 +882,9 @@
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="6">
+        <v>8</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -863,7 +900,7 @@
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>7.5</v>
       </c>
       <c r="C18" s="1"/>
@@ -897,7 +934,9 @@
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="9">
+        <v>7.5</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -910,27 +949,27 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/作业打分.xlsx
+++ b/作业打分.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ganler-mac/Desktop/Dropbox/Ganler_Dropbox/COMPETITION/RM2020/招人和培训/SPTraining-VisionGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE23C2B-AC88-C744-AA85-6E8FC3BB0D31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35B3724-33F2-664A-9222-49CAE707CF3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{76E2E8F9-87E2-9C4F-9C6E-F35B2F867F25}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{76E2E8F9-87E2-9C4F-9C6E-F35B2F867F25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,8 +131,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,12 +164,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -253,7 +255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -272,17 +274,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -602,7 +601,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -664,7 +663,9 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="7">
+        <v>7.5</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -698,7 +699,9 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="7">
+        <v>7.5</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -714,7 +717,7 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -730,7 +733,7 @@
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -746,7 +749,7 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -780,7 +783,9 @@
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="7">
+        <v>7</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -814,7 +819,9 @@
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="7">
+        <v>8</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -866,7 +873,9 @@
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="7">
+        <v>8</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -918,7 +927,9 @@
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="7">
+        <v>8</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -934,7 +945,7 @@
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="7">
         <v>7.5</v>
       </c>
       <c r="C20" s="1"/>

--- a/作业打分.xlsx
+++ b/作业打分.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ganler-mac/Desktop/Dropbox/Ganler_Dropbox/COMPETITION/RM2020/招人和培训/SPTraining-VisionGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35B3724-33F2-664A-9222-49CAE707CF3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE48A53-568C-4F47-A5F3-783AD571F910}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{76E2E8F9-87E2-9C4F-9C6E-F35B2F867F25}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>黎思杭</t>
   </si>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>第一次作业的问题：include path, 代码风格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次作业</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,8 +143,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +184,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -255,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,8 +306,17 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -601,7 +636,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -614,7 +649,9 @@
       <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -632,7 +669,9 @@
       <c r="B2" s="6">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1">
+        <v>9</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -647,8 +686,12 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8.5</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -666,7 +709,9 @@
       <c r="B4" s="7">
         <v>7.5</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="11">
+        <v>8</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -684,7 +729,9 @@
       <c r="B5" s="7">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>8.5</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -717,23 +764,25 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="7">
+        <v>7.5</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -749,8 +798,12 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8.5</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -768,7 +821,9 @@
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -786,7 +841,9 @@
       <c r="B11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -804,7 +861,9 @@
       <c r="B12" s="6">
         <v>8</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>8.5</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -822,7 +881,9 @@
       <c r="B13" s="7">
         <v>8</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>8.5</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -858,7 +919,9 @@
       <c r="B15" s="6">
         <v>7.5</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>8.5</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -876,7 +939,9 @@
       <c r="B16" s="7">
         <v>8</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>8</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -894,7 +959,9 @@
       <c r="B17" s="6">
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>8</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -912,7 +979,9 @@
       <c r="B18" s="6">
         <v>7.5</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>9</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -948,7 +1017,9 @@
       <c r="B20" s="7">
         <v>7.5</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>7.5</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -960,27 +1031,27 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/作业打分.xlsx
+++ b/作业打分.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ganler-mac/Desktop/Dropbox/Ganler_Dropbox/COMPETITION/RM2020/招人和培训/SPTraining-VisionGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE48A53-568C-4F47-A5F3-783AD571F910}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EF55FF-ABB0-B842-B04C-3188E30A5EE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{76E2E8F9-87E2-9C4F-9C6E-F35B2F867F25}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{76E2E8F9-87E2-9C4F-9C6E-F35B2F867F25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -312,11 +312,11 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -636,7 +636,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -709,7 +709,7 @@
       <c r="B4" s="7">
         <v>7.5</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>8</v>
       </c>
       <c r="D4" s="1"/>
@@ -901,7 +901,9 @@
       <c r="B14" s="6">
         <v>9</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>8.5</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1031,27 +1033,27 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/作业打分.xlsx
+++ b/作业打分.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ganler-mac/Desktop/Dropbox/Ganler_Dropbox/COMPETITION/RM2020/招人和培训/SPTraining-VisionGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EF55FF-ABB0-B842-B04C-3188E30A5EE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7902A07D-EE0F-AF47-92C2-B1F45466837E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{76E2E8F9-87E2-9C4F-9C6E-F35B2F867F25}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{76E2E8F9-87E2-9C4F-9C6E-F35B2F867F25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>黎思杭</t>
   </si>
@@ -42,9 +42,6 @@
     <t>韩煦源</t>
   </si>
   <si>
-    <t>黄宜文</t>
-  </si>
-  <si>
     <t>黄哲</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>张成翼</t>
   </si>
   <si>
-    <t>吴若兰</t>
-  </si>
-  <si>
     <t>郑秋实</t>
   </si>
   <si>
@@ -97,6 +91,50 @@
   </si>
   <si>
     <t>第二次作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三次作业-分类器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三次作业-MSER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9（自己写+多线程）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小改动，效果一般)8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9(只改了MSER参数，效果不错)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(第一个交，小改动)8.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9(改了MSER参数，筛选颜色，效果不错)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.5(很多小trick，效果很好)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5（多线程）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10(牛逼)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中德表示课太多</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -145,22 +183,22 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,12 +222,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -285,37 +317,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,432 +665,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9425A208-BD44-764D-AE7D-545F2FDF4B34}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="5"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="C4" s="10">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C14" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>8</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7">
+        <v>8</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C16" s="7">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" ht="17" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="C18" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="C4" s="10">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="C18" s="1">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="17" thickBot="1">
-      <c r="A20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="C20" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:L20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作业打分.xlsx
+++ b/作业打分.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ganler-mac/Desktop/Dropbox/Ganler_Dropbox/COMPETITION/RM2020/招人和培训/SPTraining-VisionGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7902A07D-EE0F-AF47-92C2-B1F45466837E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5791E915-EEC2-B54F-B3AB-5C22DFD3AB80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{76E2E8F9-87E2-9C4F-9C6E-F35B2F867F25}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
-  <si>
-    <t>黎思杭</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>王嘉豪</t>
   </si>
@@ -326,9 +323,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,6 +342,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9425A208-BD44-764D-AE7D-545F2FDF4B34}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A19" sqref="A19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -679,46 +676,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="B2" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
@@ -727,184 +728,188 @@
       <c r="B3" s="8">
         <v>7.5</v>
       </c>
-      <c r="C3" s="7">
-        <v>8.5</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="C3" s="9">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="C4" s="10">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="B4" s="8">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7">
-        <v>8.5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7">
-        <v>9</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="B5" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>7.5</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="C6" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>7.5</v>
       </c>
-      <c r="C7" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7" s="6">
         <v>8.5</v>
       </c>
-      <c r="E7" s="7">
-        <v>9.5</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="D7" s="6">
+        <v>8</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="C8" s="7">
-        <v>8.5</v>
-      </c>
-      <c r="D8" s="7">
-        <v>8</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="B8" s="7">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6">
         <v>9</v>
       </c>
-      <c r="C9" s="7">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="E9" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7">
-        <v>8</v>
-      </c>
-      <c r="D10" s="7">
-        <v>9</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="B10" s="7">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
         <v>8.5</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="D10" s="6">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
@@ -913,221 +918,201 @@
       <c r="B11" s="8">
         <v>8</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>8.5</v>
       </c>
-      <c r="D11" s="7">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="9">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B12" s="7">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6">
         <v>8.5</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="D12" s="6">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8">
-        <v>9</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="C13" s="6">
         <v>8.5</v>
       </c>
-      <c r="D13" s="7">
-        <v>9</v>
-      </c>
-      <c r="E13" s="7">
-        <v>8</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="D13" s="6">
+        <v>8</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8">
-        <v>7.5</v>
-      </c>
-      <c r="C14" s="7">
-        <v>8.5</v>
-      </c>
-      <c r="D14" s="7">
-        <v>8</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="B14" s="7">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6">
+        <v>8</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8">
-        <v>8</v>
-      </c>
-      <c r="C15" s="7">
-        <v>8</v>
-      </c>
-      <c r="D15" s="7">
-        <v>8</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="B15" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="8">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="17" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8">
         <v>7.5</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="D17" s="6">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6">
         <v>9</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9">
-        <v>8</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7">
-        <v>8.5</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" ht="17" thickBot="1">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="C18" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:L19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
